--- a/Session_4/Book1.xlsx
+++ b/Session_4/Book1.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khemr\Downloads\MySQL\EdYoda_Sessions\Session_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khemr\Downloads\MySQL\EdYoda_Sessions\MySQL-Notes\Session_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC51812E-D9F2-42F9-8D02-841348BF5634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82563AE9-53F1-47D7-BCE7-6B4004796B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{BB803FE4-BC5F-4646-A389-47E93A13D2D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{BB803FE4-BC5F-4646-A389-47E93A13D2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="63">
   <si>
     <t>first_name</t>
   </si>
@@ -169,12 +170,81 @@
   <si>
     <t>FOREIGN KEY  REFERENCES customers(id)</t>
   </si>
+  <si>
+    <t>Product_Id</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Black, Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green,Blue</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Pen</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>earphone</t>
+  </si>
+  <si>
+    <t>pen_drive</t>
+  </si>
+  <si>
+    <t>Table purchase detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer_id </t>
+  </si>
+  <si>
+    <t>Store_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Location</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>Noida</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">purchase </t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>2nd Normal Form</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +262,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -218,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,11 +328,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -266,11 +388,57 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -578,8 +746,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE79B8FA-63D3-46B6-8F99-BFF57FD82EFF}" name="Table1" displayName="Table1" ref="C7:G15" totalsRowShown="0">
-  <autoFilter ref="C7:G15" xr:uid="{AE79B8FA-63D3-46B6-8F99-BFF57FD82EFF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE79B8FA-63D3-46B6-8F99-BFF57FD82EFF}" name="Table1" displayName="Table1" ref="C7:G26" totalsRowShown="0">
+  <autoFilter ref="C7:G26" xr:uid="{AE79B8FA-63D3-46B6-8F99-BFF57FD82EFF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8AD4374B-1741-411C-BFBB-71BF48961200}" name="first_name"/>
     <tableColumn id="2" xr3:uid="{E2CCD130-3E5F-4B81-A968-ACC39F0C42CF}" name="last_name"/>
@@ -588,6 +756,29 @@
     <tableColumn id="5" xr3:uid="{B4162187-91B9-4B14-8BC8-C62A7AD96E23}" name="amount"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0B606657-AC67-4590-A1E7-B286CEF2D251}" name="Table2" displayName="Table2" ref="E30:F35" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="E30:F35" xr:uid="{0B606657-AC67-4590-A1E7-B286CEF2D251}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F0AFA2B3-57F7-4CB5-8DE4-33A9BE3D4C64}" name="Customer_id "/>
+    <tableColumn id="2" xr3:uid="{D87F578C-67CB-4D64-BCBB-7413E6B009B1}" name="Store_id"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D46AEE0B-67A6-42EC-830A-943FAE0C1012}" name="Table3" displayName="Table3" ref="E21:G26" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="E21:G26" xr:uid="{D46AEE0B-67A6-42EC-830A-943FAE0C1012}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1CA228A6-9D77-4D60-B7C7-5009E817974E}" name="Customer_id "/>
+    <tableColumn id="2" xr3:uid="{27F0DE39-6C4A-409B-A11D-9A754A68465D}" name="Store_id"/>
+    <tableColumn id="3" xr3:uid="{92139939-89F3-4181-B570-A5A6024FB145}" name=" Location"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -888,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43F0F21-9A8C-4A28-ADD8-0D62B5E7DA5A}">
-  <dimension ref="C7:G15"/>
+  <dimension ref="A7:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G15"/>
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,9 +1092,10 @@
     <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -920,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -937,7 +1129,7 @@
         <v>99.99</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>5</v>
       </c>
@@ -954,7 +1146,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -971,7 +1163,7 @@
         <v>800.67</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -988,7 +1180,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>19</v>
       </c>
@@ -1022,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>18</v>
       </c>
@@ -1039,7 +1231,7 @@
         <v>800.67</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1054,6 +1246,554 @@
       </c>
       <c r="G15">
         <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>800.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>800.67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>800.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>12.5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>800.67</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="4">
+        <v>99.99</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>12.5</v>
+      </c>
+      <c r="I24" s="5">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="5">
+        <v>2</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>99.99</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="3">
+        <v>3</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="4">
+        <v>800.67</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5">
+        <v>4</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="5">
+        <v>4</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P26" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="4">
+        <v>800.67</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" s="5">
+        <v>6</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="9">
+        <v>99.99</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="10">
+        <v>35.5</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30" s="5">
+        <v>8</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="9">
+        <v>800.67</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>4</v>
+      </c>
+      <c r="N31">
+        <v>9</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f>50-40</f>
+        <v>10</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32" s="5">
+        <v>10</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="9">
+        <v>800.67</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33">
+        <v>11</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="10">
+        <v>800.67</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34" s="5">
+        <v>12</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P34" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>8</v>
+      </c>
+      <c r="N35">
+        <v>13</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="10">
+        <v>800.67</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36" s="5">
+        <v>14</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P36" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>10</v>
+      </c>
+      <c r="N37">
+        <v>15</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="10">
+        <v>99.99</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1804,378 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA4247-7D1B-4CFB-920C-12F713F79F41}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F84E7A-2244-405F-ADC3-5CD551002D3B}">
+  <dimension ref="C4:P35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="5:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="5:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>400</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>500</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="5:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E30" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14">
+        <v>1</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="14">
+        <v>3</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14">
+        <v>2</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549A9531-E2F9-44A9-A53C-A72871E2E342}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1079,12 +2190,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F87283-9506-4852-8921-E6B16210F8EB}">
   <dimension ref="C5:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M26"/>
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,7 +2650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49056B6D-CB2E-4057-979E-AE553C96D7E1}">
   <dimension ref="B3:I12"/>
   <sheetViews>
@@ -1596,7 +2707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC433DC-AF48-4FD5-A6F8-3D51991E2D39}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1611,7 +2722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF736C9C-AB71-4735-87D0-B99CC3184480}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1626,7 +2737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261509D7-62CE-4A13-A728-51180E235EE0}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1641,7 +2752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F27CC4B-FE91-4C87-8AFE-1871C258208B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1654,19 +2765,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA4247-7D1B-4CFB-920C-12F713F79F41}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>